--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/99/word_level_predictions_99.xlsx
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Missed_I-Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -2894,468 +2894,468 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>4</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>4</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>4</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>4</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>4</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Recorder</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
         <v>4</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>Recorder</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
         <v>4</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>7</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
         <v>4</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>Index</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" t="n">
         <v>8</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4454,106 +4454,106 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>8</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>0</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>8</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -4593,11 +4593,11 @@
         </is>
       </c>
       <c r="I80" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K80" s="2" t="b">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G81" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12358,416 +12358,416 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
+      <c r="A230" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C230" s="2" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D230" t="n">
+      <c r="D230" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E230" t="inlineStr">
+      <c r="E230" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
+      <c r="F230" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G230" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I230" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K230" t="b">
-        <v>1</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="G230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J230" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
+      <c r="A231" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C231" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D231" t="n">
-        <v>1</v>
-      </c>
-      <c r="E231" t="inlineStr">
+      <c r="D231" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
+      <c r="F231" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I231" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="G231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J231" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
+      <c r="A232" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B232" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
+      <c r="C232" s="2" t="inlineStr">
         <is>
           <t>lower</t>
         </is>
       </c>
-      <c r="D232" t="n">
+      <c r="D232" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E232" t="inlineStr">
+      <c r="E232" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
+      <c r="F232" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G232" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I232" t="b">
-        <v>1</v>
-      </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K232" t="b">
-        <v>1</v>
-      </c>
-      <c r="L232" t="inlineStr">
+      <c r="G232" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J232" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L232" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="F233" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C234" s="2" t="inlineStr">
         <is>
           <t>pack</t>
         </is>
       </c>
-      <c r="D234" t="n">
+      <c r="D234" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E234" t="inlineStr">
+      <c r="E234" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B235" s="2" t="inlineStr">
+        <is>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+        </is>
+      </c>
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>5</v>
-      </c>
-      <c r="E235" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>landing</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>landing</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>6</v>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>21</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D237" t="n">
+      <c r="D237" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="E237" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F237" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -16570,158 +16570,158 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="2" t="n">
+      <c r="A311" t="n">
         <v>28</v>
       </c>
-      <c r="B311" s="2" t="inlineStr">
+      <c r="B311" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C311" s="2" t="inlineStr">
+      <c r="C311" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D311" s="2" t="n">
+      <c r="D311" t="n">
         <v>0</v>
       </c>
-      <c r="E311" s="2" t="inlineStr">
+      <c r="E311" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F311" s="2" t="inlineStr">
+      <c r="F311" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G311" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H311" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I311" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J311" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K311" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L311" s="2" t="inlineStr">
+      <c r="G311" t="b">
+        <v>1</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I311" t="b">
+        <v>1</v>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K311" t="b">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="2" t="n">
+      <c r="A312" t="n">
         <v>28</v>
       </c>
-      <c r="B312" s="2" t="inlineStr">
+      <c r="B312" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C312" s="2" t="inlineStr">
+      <c r="C312" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D312" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E312" s="2" t="inlineStr">
+      <c r="D312" t="n">
+        <v>1</v>
+      </c>
+      <c r="E312" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F312" s="2" t="inlineStr">
+      <c r="F312" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G312" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H312" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I312" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J312" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K312" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L312" s="2" t="inlineStr">
+      <c r="G312" t="b">
+        <v>1</v>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I312" t="b">
+        <v>1</v>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K312" t="b">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="2" t="n">
+      <c r="A313" t="n">
         <v>28</v>
       </c>
-      <c r="B313" s="2" t="inlineStr">
+      <c r="B313" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C313" s="2" t="inlineStr">
+      <c r="C313" t="inlineStr">
         <is>
           <t>Approached</t>
         </is>
       </c>
-      <c r="D313" s="2" t="n">
+      <c r="D313" t="n">
         <v>2</v>
       </c>
-      <c r="E313" s="2" t="inlineStr">
+      <c r="E313" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F313" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G313" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H313" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I313" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J313" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K313" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L313" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G313" t="b">
+        <v>1</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I313" t="b">
+        <v>1</v>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K313" t="b">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18101,7 +18101,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G340" t="b">
@@ -18125,7 +18125,7 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18153,7 +18153,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G341" t="b">
@@ -18177,7 +18177,7 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20597,7 +20597,7 @@
       </c>
       <c r="F388" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G388" s="2" t="b">
@@ -20621,7 +20621,7 @@
       </c>
       <c r="L388" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20701,7 +20701,7 @@
       </c>
       <c r="F390" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G390" s="2" t="b">
@@ -20725,7 +20725,7 @@
       </c>
       <c r="L390" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24734,366 +24734,366 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="n">
+      <c r="A468" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B468" t="inlineStr">
+      <c r="B468" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C468" t="inlineStr">
+      <c r="C468" s="2" t="inlineStr">
         <is>
           <t>Cool</t>
         </is>
       </c>
-      <c r="D468" t="n">
+      <c r="D468" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E468" t="inlineStr">
+      <c r="E468" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F468" t="inlineStr">
+      <c r="F468" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G468" t="b">
-        <v>1</v>
-      </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I468" t="b">
-        <v>1</v>
-      </c>
-      <c r="J468" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K468" t="b">
-        <v>1</v>
-      </c>
-      <c r="L468" t="inlineStr">
+      <c r="G468" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H468" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I468" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J468" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K468" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L468" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="n">
+      <c r="A469" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B469" t="inlineStr">
+      <c r="B469" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C469" t="inlineStr">
+      <c r="C469" s="2" t="inlineStr">
         <is>
           <t>down</t>
         </is>
       </c>
-      <c r="D469" t="n">
+      <c r="D469" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F469" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G469" t="b">
-        <v>1</v>
-      </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I469" t="b">
-        <v>1</v>
-      </c>
-      <c r="J469" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K469" t="b">
-        <v>1</v>
-      </c>
-      <c r="L469" t="inlineStr">
+      <c r="E469" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F469" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G469" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H469" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I469" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J469" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K469" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L469" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="n">
+      <c r="A470" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B470" t="inlineStr">
+      <c r="B470" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C470" t="inlineStr">
+      <c r="C470" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D470" t="n">
+      <c r="D470" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F470" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G470" t="b">
-        <v>1</v>
-      </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I470" t="b">
-        <v>1</v>
-      </c>
-      <c r="J470" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K470" t="b">
-        <v>1</v>
-      </c>
-      <c r="L470" t="inlineStr">
+      <c r="E470" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F470" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G470" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H470" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I470" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J470" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K470" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L470" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="n">
+      <c r="A471" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B471" t="inlineStr">
+      <c r="B471" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C471" t="inlineStr">
+      <c r="C471" s="2" t="inlineStr">
         <is>
           <t>monitor</t>
         </is>
       </c>
-      <c r="D471" t="n">
+      <c r="D471" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E471" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F471" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G471" t="b">
-        <v>1</v>
-      </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I471" t="b">
-        <v>1</v>
-      </c>
-      <c r="J471" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K471" t="b">
-        <v>1</v>
-      </c>
-      <c r="L471" t="inlineStr">
+      <c r="E471" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F471" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G471" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H471" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I471" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J471" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K471" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L471" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="n">
+      <c r="A472" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B472" t="inlineStr">
+      <c r="B472" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C472" t="inlineStr">
+      <c r="C472" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D472" t="n">
+      <c r="D472" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F472" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G472" t="b">
-        <v>1</v>
-      </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I472" t="b">
-        <v>1</v>
-      </c>
-      <c r="J472" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K472" t="b">
-        <v>1</v>
-      </c>
-      <c r="L472" t="inlineStr">
+      <c r="E472" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F472" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G472" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H472" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I472" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J472" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K472" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L472" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="n">
+      <c r="A473" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B473" t="inlineStr">
+      <c r="B473" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C473" t="inlineStr">
+      <c r="C473" s="2" t="inlineStr">
         <is>
           <t>prevent</t>
         </is>
       </c>
-      <c r="D473" t="n">
+      <c r="D473" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E473" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F473" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G473" t="b">
-        <v>1</v>
-      </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I473" t="b">
-        <v>1</v>
-      </c>
-      <c r="J473" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K473" t="b">
-        <v>1</v>
-      </c>
-      <c r="L473" t="inlineStr">
+      <c r="E473" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F473" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G473" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H473" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I473" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J473" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K473" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L473" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="n">
+      <c r="A474" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B474" t="inlineStr">
+      <c r="B474" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C474" t="inlineStr">
+      <c r="C474" s="2" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D474" t="n">
+      <c r="D474" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E474" t="inlineStr">
+      <c r="E474" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F474" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G474" t="b">
-        <v>1</v>
-      </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I474" t="b">
-        <v>1</v>
-      </c>
-      <c r="J474" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K474" t="b">
-        <v>1</v>
-      </c>
-      <c r="L474" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F474" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G474" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H474" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I474" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J474" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K474" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L474" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/99/word_level_predictions_99.xlsx
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Missed_I-Event</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2894,468 +2894,468 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4454,106 +4454,106 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" t="inlineStr">
+      <c r="D79" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4593,11 +4593,11 @@
         </is>
       </c>
       <c r="I80" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K80" s="2" t="b">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G81" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12358,416 +12358,416 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" t="n">
         <v>21</v>
       </c>
-      <c r="B230" s="2" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C230" s="2" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" t="n">
         <v>0</v>
       </c>
-      <c r="E230" s="2" t="inlineStr">
+      <c r="E230" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F230" s="2" t="inlineStr">
+      <c r="F230" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L230" s="2" t="inlineStr">
+      <c r="G230" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I230" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K230" t="b">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" t="n">
         <v>21</v>
       </c>
-      <c r="B231" s="2" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C231" s="2" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E231" s="2" t="inlineStr">
+      <c r="D231" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F231" s="2" t="inlineStr">
+      <c r="F231" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L231" s="2" t="inlineStr">
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="n">
+      <c r="A232" t="n">
         <v>21</v>
       </c>
-      <c r="B232" s="2" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C232" s="2" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>lower</t>
         </is>
       </c>
-      <c r="D232" s="2" t="n">
+      <c r="D232" t="n">
         <v>2</v>
       </c>
-      <c r="E232" s="2" t="inlineStr">
+      <c r="E232" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F232" s="2" t="inlineStr">
+      <c r="F232" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G232" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L232" s="2" t="inlineStr">
+      <c r="G232" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I232" t="b">
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K232" t="b">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>21</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>3</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
+      <c r="F233" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>21</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>pack</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>4</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>21</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>up</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>5</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>21</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>landing</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>6</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
+      <c r="F236" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>21</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>7</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -16570,158 +16570,158 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="n">
+      <c r="A311" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B311" t="inlineStr">
+      <c r="B311" s="2" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C311" t="inlineStr">
+      <c r="C311" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D311" t="n">
+      <c r="D311" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E311" t="inlineStr">
+      <c r="E311" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F311" t="inlineStr">
+      <c r="F311" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G311" t="b">
-        <v>1</v>
-      </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I311" t="b">
-        <v>1</v>
-      </c>
-      <c r="J311" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K311" t="b">
-        <v>1</v>
-      </c>
-      <c r="L311" t="inlineStr">
+      <c r="G311" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H311" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I311" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J311" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K311" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L311" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="n">
+      <c r="A312" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B312" t="inlineStr">
+      <c r="B312" s="2" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C312" t="inlineStr">
+      <c r="C312" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D312" t="n">
-        <v>1</v>
-      </c>
-      <c r="E312" t="inlineStr">
+      <c r="D312" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E312" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F312" t="inlineStr">
+      <c r="F312" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G312" t="b">
-        <v>1</v>
-      </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I312" t="b">
-        <v>1</v>
-      </c>
-      <c r="J312" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K312" t="b">
-        <v>1</v>
-      </c>
-      <c r="L312" t="inlineStr">
+      <c r="G312" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H312" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I312" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J312" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K312" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L312" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="n">
+      <c r="A313" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B313" t="inlineStr">
+      <c r="B313" s="2" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C313" t="inlineStr">
+      <c r="C313" s="2" t="inlineStr">
         <is>
           <t>Approached</t>
         </is>
       </c>
-      <c r="D313" t="n">
+      <c r="D313" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E313" t="inlineStr">
+      <c r="E313" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G313" t="b">
-        <v>1</v>
-      </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I313" t="b">
-        <v>1</v>
-      </c>
-      <c r="J313" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K313" t="b">
-        <v>1</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F313" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G313" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H313" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I313" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J313" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K313" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L313" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -18101,7 +18101,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G340" t="b">
@@ -18125,7 +18125,7 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -18153,7 +18153,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G341" t="b">
@@ -18177,7 +18177,7 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -20597,7 +20597,7 @@
       </c>
       <c r="F388" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G388" s="2" t="b">
@@ -20621,7 +20621,7 @@
       </c>
       <c r="L388" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20701,7 +20701,7 @@
       </c>
       <c r="F390" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G390" s="2" t="b">
@@ -20725,7 +20725,7 @@
       </c>
       <c r="L390" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -24734,366 +24734,366 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="2" t="n">
+      <c r="A468" t="n">
         <v>43</v>
       </c>
-      <c r="B468" s="2" t="inlineStr">
+      <c r="B468" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C468" s="2" t="inlineStr">
+      <c r="C468" t="inlineStr">
         <is>
           <t>Cool</t>
         </is>
       </c>
-      <c r="D468" s="2" t="n">
+      <c r="D468" t="n">
         <v>4</v>
       </c>
-      <c r="E468" s="2" t="inlineStr">
+      <c r="E468" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F468" s="2" t="inlineStr">
+      <c r="F468" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G468" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H468" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I468" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J468" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K468" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L468" s="2" t="inlineStr">
+      <c r="G468" t="b">
+        <v>1</v>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I468" t="b">
+        <v>1</v>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K468" t="b">
+        <v>1</v>
+      </c>
+      <c r="L468" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="2" t="n">
+      <c r="A469" t="n">
         <v>43</v>
       </c>
-      <c r="B469" s="2" t="inlineStr">
+      <c r="B469" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C469" s="2" t="inlineStr">
+      <c r="C469" t="inlineStr">
         <is>
           <t>down</t>
         </is>
       </c>
-      <c r="D469" s="2" t="n">
+      <c r="D469" t="n">
         <v>5</v>
       </c>
-      <c r="E469" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F469" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G469" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H469" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I469" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J469" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K469" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L469" s="2" t="inlineStr">
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G469" t="b">
+        <v>1</v>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I469" t="b">
+        <v>1</v>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K469" t="b">
+        <v>1</v>
+      </c>
+      <c r="L469" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="2" t="n">
+      <c r="A470" t="n">
         <v>43</v>
       </c>
-      <c r="B470" s="2" t="inlineStr">
+      <c r="B470" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C470" s="2" t="inlineStr">
+      <c r="C470" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D470" s="2" t="n">
+      <c r="D470" t="n">
         <v>6</v>
       </c>
-      <c r="E470" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F470" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G470" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H470" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I470" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J470" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K470" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L470" s="2" t="inlineStr">
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G470" t="b">
+        <v>1</v>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I470" t="b">
+        <v>1</v>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K470" t="b">
+        <v>1</v>
+      </c>
+      <c r="L470" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="2" t="n">
+      <c r="A471" t="n">
         <v>43</v>
       </c>
-      <c r="B471" s="2" t="inlineStr">
+      <c r="B471" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C471" s="2" t="inlineStr">
+      <c r="C471" t="inlineStr">
         <is>
           <t>monitor</t>
         </is>
       </c>
-      <c r="D471" s="2" t="n">
+      <c r="D471" t="n">
         <v>7</v>
       </c>
-      <c r="E471" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F471" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G471" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H471" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I471" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J471" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K471" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L471" s="2" t="inlineStr">
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G471" t="b">
+        <v>1</v>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I471" t="b">
+        <v>1</v>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K471" t="b">
+        <v>1</v>
+      </c>
+      <c r="L471" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="2" t="n">
+      <c r="A472" t="n">
         <v>43</v>
       </c>
-      <c r="B472" s="2" t="inlineStr">
+      <c r="B472" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C472" s="2" t="inlineStr">
+      <c r="C472" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D472" s="2" t="n">
+      <c r="D472" t="n">
         <v>8</v>
       </c>
-      <c r="E472" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F472" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G472" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H472" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I472" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J472" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K472" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L472" s="2" t="inlineStr">
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G472" t="b">
+        <v>1</v>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I472" t="b">
+        <v>1</v>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K472" t="b">
+        <v>1</v>
+      </c>
+      <c r="L472" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="2" t="n">
+      <c r="A473" t="n">
         <v>43</v>
       </c>
-      <c r="B473" s="2" t="inlineStr">
+      <c r="B473" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C473" s="2" t="inlineStr">
+      <c r="C473" t="inlineStr">
         <is>
           <t>prevent</t>
         </is>
       </c>
-      <c r="D473" s="2" t="n">
+      <c r="D473" t="n">
         <v>9</v>
       </c>
-      <c r="E473" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F473" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G473" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H473" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I473" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J473" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K473" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L473" s="2" t="inlineStr">
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G473" t="b">
+        <v>1</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I473" t="b">
+        <v>1</v>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K473" t="b">
+        <v>1</v>
+      </c>
+      <c r="L473" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="2" t="n">
+      <c r="A474" t="n">
         <v>43</v>
       </c>
-      <c r="B474" s="2" t="inlineStr">
+      <c r="B474" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C474" s="2" t="inlineStr">
+      <c r="C474" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D474" s="2" t="n">
+      <c r="D474" t="n">
         <v>10</v>
       </c>
-      <c r="E474" s="2" t="inlineStr">
+      <c r="E474" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F474" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G474" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H474" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I474" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J474" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K474" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L474" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G474" t="b">
+        <v>1</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I474" t="b">
+        <v>1</v>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K474" t="b">
+        <v>1</v>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
